--- a/NEW HR/DONE/ESPINELI, LORETA.xlsx
+++ b/NEW HR/DONE/ESPINELI, LORETA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>10/2-6,9-13,16-20,23-27,30,31/2023</t>
+  </si>
+  <si>
+    <t>11/1,4-7,11-15/2023</t>
+  </si>
+  <si>
+    <t>11/16,17,20-24,27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -3353,7 +3359,7 @@
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,7 +3518,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>62.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3522,7 +3528,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5050,13 +5056,15 @@
         <v>45139</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5068,13 +5076,15 @@
         <v>45170</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5082,15 +5092,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45200</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5098,7 +5112,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45231</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5114,7 +5130,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45261</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5931,7 +5949,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A26" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6101,7 +6119,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>104.44</v>
+        <v>84.44</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6633,10 +6651,16 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>10</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13" t="str">
@@ -6646,13 +6670,19 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="39"/>
+      <c r="D34" s="39">
+        <v>10</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13" t="str">
@@ -6662,7 +6692,9 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
